--- a/pojmy.xlsx
+++ b/pojmy.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Lead</t>
   </si>
@@ -37,6 +37,30 @@
   </si>
   <si>
     <t>Sales tým</t>
+  </si>
+  <si>
+    <t>NFR</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Sales Ops</t>
+  </si>
+  <si>
+    <t>Pam</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SWM</t>
   </si>
 </sst>
 </file>
@@ -84,12 +108,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Kancelář">
       <a:dk1>
@@ -131,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,6 +443,46 @@
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
